--- a/Test_format_bad.xlsx
+++ b/Test_format_bad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-49960" yWindow="7000" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -754,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" ref="L7:L70" ca="1" si="1">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="L22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="L26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
       <c r="M27" t="s">
         <v>83</v>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="L30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="L31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="L32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="L33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="L34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="L35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="L36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="L37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="L38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="L39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="L42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="L43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="L44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="L48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="L49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="L51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="L52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="L54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="L55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="L56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="L59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="L60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="L61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="L62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="L64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="L66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="L67" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="L68" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="L70" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="L71" t="str">
         <f t="shared" ref="L71:L134" ca="1" si="3">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="L72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="L73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="L74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="L75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="L76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="L78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="L79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="L80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="L81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="L82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="L83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="L84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="L85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="L86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="L87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="L88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="L91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="L92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="L94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="L95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="L96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="L98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="L99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="L100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="L102" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="L103" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="L104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="L105" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="L106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="L107" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="L108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="L109" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="L110" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="L111" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="L112" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="L113" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="L114" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="L117" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="L118" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="L119" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="L123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="L124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="L125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="L126" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="L127" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="L128" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="L129" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="L131" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="L132" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="L133" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="L134" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="L135" t="str">
         <f t="shared" ref="L135:L198" ca="1" si="5">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="L136" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="L137" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="L139" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="L141" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6674,7 +6674,7 @@
       </c>
       <c r="L142" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="L143" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="L144" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="L145" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="L146" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="L149" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="L150" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="L151" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="L152" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="L153" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="L154" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7158,7 +7158,7 @@
       </c>
       <c r="L155" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="L156" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="L157" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="L158" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="L160" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="L161" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="L162" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="L163" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="L164" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="L165" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="L166" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7602,7 +7602,7 @@
       </c>
       <c r="L167" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="L168" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="L169" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="L170" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="L172" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="L173" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="L174" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7898,7 +7898,7 @@
       </c>
       <c r="L175" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7935,7 +7935,7 @@
       </c>
       <c r="L176" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="L177" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="L178" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="L179" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="L180" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="L181" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="L182" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="L183" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="L184" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8305,7 +8305,7 @@
       </c>
       <c r="L186" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="L188" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8416,7 +8416,7 @@
       </c>
       <c r="L189" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="L190" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="L193" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8601,7 +8601,7 @@
       </c>
       <c r="L194" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="L195" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8675,7 +8675,7 @@
       </c>
       <c r="L196" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="L197" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="L198" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="L199" t="str">
         <f t="shared" ref="L199:L262" ca="1" si="7">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="L200" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="L201" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="L202" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -8934,7 +8934,7 @@
       </c>
       <c r="L203" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8971,7 +8971,7 @@
       </c>
       <c r="L204" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="L205" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9082,7 +9082,7 @@
       </c>
       <c r="L207" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9119,7 +9119,7 @@
       </c>
       <c r="L208" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="L209" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="L210" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="L213" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9341,7 +9341,7 @@
       </c>
       <c r="L214" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9378,7 +9378,7 @@
       </c>
       <c r="L215" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="L216" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9458,7 +9458,7 @@
       </c>
       <c r="L217" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="L218" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -9538,7 +9538,7 @@
       </c>
       <c r="L219" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="L220" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -9618,7 +9618,7 @@
       </c>
       <c r="L221" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -9658,7 +9658,7 @@
       </c>
       <c r="L222" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="L223" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="L224" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -9778,7 +9778,7 @@
       </c>
       <c r="L225" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="L226" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="L228" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -9938,7 +9938,7 @@
       </c>
       <c r="L229" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10018,7 +10018,7 @@
       </c>
       <c r="L231" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10058,7 +10058,7 @@
       </c>
       <c r="L232" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10098,7 +10098,7 @@
       </c>
       <c r="L233" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10138,7 +10138,7 @@
       </c>
       <c r="L234" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10178,7 +10178,7 @@
       </c>
       <c r="L235" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10218,7 +10218,7 @@
       </c>
       <c r="L236" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10258,7 +10258,7 @@
       </c>
       <c r="L237" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10338,7 +10338,7 @@
       </c>
       <c r="L239" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="L240" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10418,7 +10418,7 @@
       </c>
       <c r="L241" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10458,7 +10458,7 @@
       </c>
       <c r="L242" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10498,7 +10498,7 @@
       </c>
       <c r="L243" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -10578,7 +10578,7 @@
       </c>
       <c r="L245" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -10618,7 +10618,7 @@
       </c>
       <c r="L246" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="L247" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -10698,7 +10698,7 @@
       </c>
       <c r="L248" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -10738,7 +10738,7 @@
       </c>
       <c r="L249" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="L250" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -10898,7 +10898,7 @@
       </c>
       <c r="L253" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -10938,7 +10938,7 @@
       </c>
       <c r="L254" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11018,7 +11018,7 @@
       </c>
       <c r="L256" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11098,7 +11098,7 @@
       </c>
       <c r="L258" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11138,7 +11138,7 @@
       </c>
       <c r="L259" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11178,7 +11178,7 @@
       </c>
       <c r="L260" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11218,7 +11218,7 @@
       </c>
       <c r="L261" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11258,7 +11258,7 @@
       </c>
       <c r="L262" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11298,7 +11298,7 @@
       </c>
       <c r="L263" t="str">
         <f t="shared" ref="L263:L326" ca="1" si="10">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11338,7 +11338,7 @@
       </c>
       <c r="L264" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11418,7 +11418,7 @@
       </c>
       <c r="L266" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11458,7 +11458,7 @@
       </c>
       <c r="L267" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11498,7 +11498,7 @@
       </c>
       <c r="L268" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11578,7 +11578,7 @@
       </c>
       <c r="L270" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -11658,7 +11658,7 @@
       </c>
       <c r="L272" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -11698,7 +11698,7 @@
       </c>
       <c r="L273" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="L274" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -11778,7 +11778,7 @@
       </c>
       <c r="L275" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -11858,7 +11858,7 @@
       </c>
       <c r="L277" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -11898,7 +11898,7 @@
       </c>
       <c r="L278" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -11938,7 +11938,7 @@
       </c>
       <c r="L279" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -11978,7 +11978,7 @@
       </c>
       <c r="L280" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12018,7 +12018,7 @@
       </c>
       <c r="L281" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="L284" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12178,7 +12178,7 @@
       </c>
       <c r="L285" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12218,7 +12218,7 @@
       </c>
       <c r="L286" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12258,7 +12258,7 @@
       </c>
       <c r="L287" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12338,7 +12338,7 @@
       </c>
       <c r="L289" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12378,7 +12378,7 @@
       </c>
       <c r="L290" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12458,7 +12458,7 @@
       </c>
       <c r="L292" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12498,7 +12498,7 @@
       </c>
       <c r="L293" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12538,7 +12538,7 @@
       </c>
       <c r="L294" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12578,7 +12578,7 @@
       </c>
       <c r="L295" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -12658,7 +12658,7 @@
       </c>
       <c r="L297" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -12698,7 +12698,7 @@
       </c>
       <c r="L298" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -12738,7 +12738,7 @@
       </c>
       <c r="L299" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -12818,7 +12818,7 @@
       </c>
       <c r="L301" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -12938,7 +12938,7 @@
       </c>
       <c r="L304" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -12978,7 +12978,7 @@
       </c>
       <c r="L305" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13178,7 +13178,7 @@
       </c>
       <c r="L310" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13218,7 +13218,7 @@
       </c>
       <c r="L311" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="L313" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13378,7 +13378,7 @@
       </c>
       <c r="L315" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13418,7 +13418,7 @@
       </c>
       <c r="L316" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13498,7 +13498,7 @@
       </c>
       <c r="L318" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13538,7 +13538,7 @@
       </c>
       <c r="L319" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13658,7 +13658,7 @@
       </c>
       <c r="L322" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -13698,7 +13698,7 @@
       </c>
       <c r="L323" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="L325" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -13818,7 +13818,7 @@
       </c>
       <c r="L326" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -13858,7 +13858,7 @@
       </c>
       <c r="L327" t="str">
         <f t="shared" ref="L327:L390" ca="1" si="12">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -13938,7 +13938,7 @@
       </c>
       <c r="L329" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -13978,7 +13978,7 @@
       </c>
       <c r="L330" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14018,7 +14018,7 @@
       </c>
       <c r="L331" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14138,7 +14138,7 @@
       </c>
       <c r="L334" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14178,7 +14178,7 @@
       </c>
       <c r="L335" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14218,7 +14218,7 @@
       </c>
       <c r="L336" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14298,7 +14298,7 @@
       </c>
       <c r="L338" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14378,7 +14378,7 @@
       </c>
       <c r="L340" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14418,7 +14418,7 @@
       </c>
       <c r="L341" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="L342" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14538,7 +14538,7 @@
       </c>
       <c r="L344" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14578,7 +14578,7 @@
       </c>
       <c r="L345" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="L346" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14738,7 +14738,7 @@
       </c>
       <c r="L349" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -14818,7 +14818,7 @@
       </c>
       <c r="L351" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -14858,7 +14858,7 @@
       </c>
       <c r="L352" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -14898,7 +14898,7 @@
       </c>
       <c r="L353" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="L354" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -14978,7 +14978,7 @@
       </c>
       <c r="L355" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15018,7 +15018,7 @@
       </c>
       <c r="L356" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15058,7 +15058,7 @@
       </c>
       <c r="L357" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15098,7 +15098,7 @@
       </c>
       <c r="L358" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="L360" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15218,7 +15218,7 @@
       </c>
       <c r="L361" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="L364" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="L366" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15458,7 +15458,7 @@
       </c>
       <c r="L367" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15498,7 +15498,7 @@
       </c>
       <c r="L368" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15538,7 +15538,7 @@
       </c>
       <c r="L369" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15578,7 +15578,7 @@
       </c>
       <c r="L370" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15658,7 +15658,7 @@
       </c>
       <c r="L372" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15698,7 +15698,7 @@
       </c>
       <c r="L373" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="L376" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -15858,7 +15858,7 @@
       </c>
       <c r="L377" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -15898,7 +15898,7 @@
       </c>
       <c r="L378" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -15938,7 +15938,7 @@
       </c>
       <c r="L379" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -15978,7 +15978,7 @@
       </c>
       <c r="L380" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16018,7 +16018,7 @@
       </c>
       <c r="L381" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16098,7 +16098,7 @@
       </c>
       <c r="L383" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16138,7 +16138,7 @@
       </c>
       <c r="L384" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16218,7 +16218,7 @@
       </c>
       <c r="L386" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16258,7 +16258,7 @@
       </c>
       <c r="L387" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16338,7 +16338,7 @@
       </c>
       <c r="L389" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="L390" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16418,7 +16418,7 @@
       </c>
       <c r="L391" t="str">
         <f t="shared" ref="L391:L454" ca="1" si="14">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16458,7 +16458,7 @@
       </c>
       <c r="L392" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="L393" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16538,7 +16538,7 @@
       </c>
       <c r="L394" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16578,7 +16578,7 @@
       </c>
       <c r="L395" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16618,7 +16618,7 @@
       </c>
       <c r="L396" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16698,7 +16698,7 @@
       </c>
       <c r="L398" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16738,7 +16738,7 @@
       </c>
       <c r="L399" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16778,7 +16778,7 @@
       </c>
       <c r="L400" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16858,7 +16858,7 @@
       </c>
       <c r="L402" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -16938,7 +16938,7 @@
       </c>
       <c r="L404" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -16978,7 +16978,7 @@
       </c>
       <c r="L405" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17018,7 +17018,7 @@
       </c>
       <c r="L406" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17058,7 +17058,7 @@
       </c>
       <c r="L407" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17098,7 +17098,7 @@
       </c>
       <c r="L408" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17138,7 +17138,7 @@
       </c>
       <c r="L409" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="L410" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17218,7 +17218,7 @@
       </c>
       <c r="L411" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17258,7 +17258,7 @@
       </c>
       <c r="L412" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17298,7 +17298,7 @@
       </c>
       <c r="L413" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17338,7 +17338,7 @@
       </c>
       <c r="L414" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17378,7 +17378,7 @@
       </c>
       <c r="L415" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17498,7 +17498,7 @@
       </c>
       <c r="L418" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17538,7 +17538,7 @@
       </c>
       <c r="L419" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17618,7 +17618,7 @@
       </c>
       <c r="L421" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17698,7 +17698,7 @@
       </c>
       <c r="L423" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17778,7 +17778,7 @@
       </c>
       <c r="L425" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17818,7 +17818,7 @@
       </c>
       <c r="L426" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="L427" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -17978,7 +17978,7 @@
       </c>
       <c r="L430" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="L431" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18058,7 +18058,7 @@
       </c>
       <c r="L432" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18098,7 +18098,7 @@
       </c>
       <c r="L433" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18258,7 +18258,7 @@
       </c>
       <c r="L437" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18298,7 +18298,7 @@
       </c>
       <c r="L438" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18338,7 +18338,7 @@
       </c>
       <c r="L439" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18378,7 +18378,7 @@
       </c>
       <c r="L440" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18418,7 +18418,7 @@
       </c>
       <c r="L441" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18458,7 +18458,7 @@
       </c>
       <c r="L442" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="L444" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18578,7 +18578,7 @@
       </c>
       <c r="L445" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18618,7 +18618,7 @@
       </c>
       <c r="L446" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18658,7 +18658,7 @@
       </c>
       <c r="L447" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18738,7 +18738,7 @@
       </c>
       <c r="L449" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18778,7 +18778,7 @@
       </c>
       <c r="L450" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18818,7 +18818,7 @@
       </c>
       <c r="L451" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -18858,7 +18858,7 @@
       </c>
       <c r="L452" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -18938,7 +18938,7 @@
       </c>
       <c r="L454" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19018,7 +19018,7 @@
       </c>
       <c r="L456" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19098,7 +19098,7 @@
       </c>
       <c r="L458" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19138,7 +19138,7 @@
       </c>
       <c r="L459" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19178,7 +19178,7 @@
       </c>
       <c r="L460" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="L461" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19258,7 +19258,7 @@
       </c>
       <c r="L462" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19298,7 +19298,7 @@
       </c>
       <c r="L463" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19338,7 +19338,7 @@
       </c>
       <c r="L464" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19378,7 +19378,7 @@
       </c>
       <c r="L465" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19418,7 +19418,7 @@
       </c>
       <c r="L466" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19458,7 +19458,7 @@
       </c>
       <c r="L467" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19498,7 +19498,7 @@
       </c>
       <c r="L468" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19578,7 +19578,7 @@
       </c>
       <c r="L470" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19618,7 +19618,7 @@
       </c>
       <c r="L471" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19658,7 +19658,7 @@
       </c>
       <c r="L472" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19698,7 +19698,7 @@
       </c>
       <c r="L473" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -19738,7 +19738,7 @@
       </c>
       <c r="L474" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -19818,7 +19818,7 @@
       </c>
       <c r="L476" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -19858,7 +19858,7 @@
       </c>
       <c r="L477" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -19978,7 +19978,7 @@
       </c>
       <c r="L480" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20058,7 +20058,7 @@
       </c>
       <c r="L482" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -20098,7 +20098,7 @@
       </c>
       <c r="L483" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -20138,7 +20138,7 @@
       </c>
       <c r="L484" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -20178,7 +20178,7 @@
       </c>
       <c r="L485" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -20218,7 +20218,7 @@
       </c>
       <c r="L486" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -20298,7 +20298,7 @@
       </c>
       <c r="L488" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -20378,7 +20378,7 @@
       </c>
       <c r="L490" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -20418,7 +20418,7 @@
       </c>
       <c r="L491" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -20498,7 +20498,7 @@
       </c>
       <c r="L493" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="494" spans="1:12">
@@ -20538,7 +20538,7 @@
       </c>
       <c r="L494" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="495" spans="1:12">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="L495" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="496" spans="1:12">
@@ -20618,7 +20618,7 @@
       </c>
       <c r="L496" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="497" spans="1:12">
@@ -20698,7 +20698,7 @@
       </c>
       <c r="L498" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -20738,7 +20738,7 @@
       </c>
       <c r="L499" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="500" spans="1:12">
@@ -20778,7 +20778,7 @@
       </c>
       <c r="L500" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="501" spans="1:12">
@@ -20858,7 +20858,7 @@
       </c>
       <c r="L502" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="503" spans="1:12">
@@ -20978,7 +20978,7 @@
       </c>
       <c r="L505" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="506" spans="1:12">
@@ -21018,7 +21018,7 @@
       </c>
       <c r="L506" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="507" spans="1:12">
@@ -21058,7 +21058,7 @@
       </c>
       <c r="L507" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -21098,7 +21098,7 @@
       </c>
       <c r="L508" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -21218,7 +21218,7 @@
       </c>
       <c r="L511" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="L512" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -21298,7 +21298,7 @@
       </c>
       <c r="L513" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -21338,7 +21338,7 @@
       </c>
       <c r="L514" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -21378,7 +21378,7 @@
       </c>
       <c r="L515" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -21418,7 +21418,7 @@
       </c>
       <c r="L516" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -21458,7 +21458,7 @@
       </c>
       <c r="L517" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -21498,7 +21498,7 @@
       </c>
       <c r="L518" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -21538,7 +21538,7 @@
       </c>
       <c r="L519" t="str">
         <f t="shared" ref="L519:L582" ca="1" si="18">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="520" spans="1:12">
@@ -21658,7 +21658,7 @@
       </c>
       <c r="L522" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="523" spans="1:12">
@@ -21698,7 +21698,7 @@
       </c>
       <c r="L523" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="524" spans="1:12">
@@ -21818,7 +21818,7 @@
       </c>
       <c r="L526" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="527" spans="1:12">
@@ -21898,7 +21898,7 @@
       </c>
       <c r="L528" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="529" spans="1:12">
@@ -21938,7 +21938,7 @@
       </c>
       <c r="L529" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -21978,7 +21978,7 @@
       </c>
       <c r="L530" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -22018,7 +22018,7 @@
       </c>
       <c r="L531" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="532" spans="1:12">
@@ -22058,7 +22058,7 @@
       </c>
       <c r="L532" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="533" spans="1:12">
@@ -22098,7 +22098,7 @@
       </c>
       <c r="L533" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="534" spans="1:12">
@@ -22138,7 +22138,7 @@
       </c>
       <c r="L534" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="535" spans="1:12">
@@ -22178,7 +22178,7 @@
       </c>
       <c r="L535" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="536" spans="1:12">
@@ -22258,7 +22258,7 @@
       </c>
       <c r="L537" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="538" spans="1:12">
@@ -22298,7 +22298,7 @@
       </c>
       <c r="L538" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="539" spans="1:12">
@@ -22338,7 +22338,7 @@
       </c>
       <c r="L539" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="540" spans="1:12">
@@ -22378,7 +22378,7 @@
       </c>
       <c r="L540" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="541" spans="1:12">
@@ -22418,7 +22418,7 @@
       </c>
       <c r="L541" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="542" spans="1:12">
@@ -22458,7 +22458,7 @@
       </c>
       <c r="L542" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="543" spans="1:12">
@@ -22498,7 +22498,7 @@
       </c>
       <c r="L543" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="544" spans="1:12">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="L545" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="546" spans="1:12">
@@ -22618,7 +22618,7 @@
       </c>
       <c r="L546" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="547" spans="1:12">
@@ -22698,7 +22698,7 @@
       </c>
       <c r="L548" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="549" spans="1:12">
@@ -22738,7 +22738,7 @@
       </c>
       <c r="L549" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="550" spans="1:12">
@@ -22778,7 +22778,7 @@
       </c>
       <c r="L550" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="551" spans="1:12">
@@ -22818,7 +22818,7 @@
       </c>
       <c r="L551" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="552" spans="1:12">
@@ -22938,7 +22938,7 @@
       </c>
       <c r="L554" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="555" spans="1:12">
@@ -23018,7 +23018,7 @@
       </c>
       <c r="L556" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="557" spans="1:12">
@@ -23058,7 +23058,7 @@
       </c>
       <c r="L557" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="558" spans="1:12">
@@ -23098,7 +23098,7 @@
       </c>
       <c r="L558" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="559" spans="1:12">
@@ -23138,7 +23138,7 @@
       </c>
       <c r="L559" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="560" spans="1:12">
@@ -23218,7 +23218,7 @@
       </c>
       <c r="L561" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="562" spans="1:12">
@@ -23258,7 +23258,7 @@
       </c>
       <c r="L562" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="563" spans="1:12">
@@ -23298,7 +23298,7 @@
       </c>
       <c r="L563" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="564" spans="1:12">
@@ -23338,7 +23338,7 @@
       </c>
       <c r="L564" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="565" spans="1:12">
@@ -23378,7 +23378,7 @@
       </c>
       <c r="L565" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="566" spans="1:12">
@@ -23498,7 +23498,7 @@
       </c>
       <c r="L568" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="569" spans="1:12">
@@ -23538,7 +23538,7 @@
       </c>
       <c r="L569" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="570" spans="1:12">
@@ -23578,7 +23578,7 @@
       </c>
       <c r="L570" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="571" spans="1:12">
@@ -23618,7 +23618,7 @@
       </c>
       <c r="L571" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="572" spans="1:12">
@@ -23658,7 +23658,7 @@
       </c>
       <c r="L572" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="573" spans="1:12">
@@ -23698,7 +23698,7 @@
       </c>
       <c r="L573" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="574" spans="1:12">
@@ -23738,7 +23738,7 @@
       </c>
       <c r="L574" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="575" spans="1:12">
@@ -23778,7 +23778,7 @@
       </c>
       <c r="L575" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="576" spans="1:12">
@@ -23818,7 +23818,7 @@
       </c>
       <c r="L576" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="577" spans="1:12">
@@ -23858,7 +23858,7 @@
       </c>
       <c r="L577" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="578" spans="1:12">
@@ -23898,7 +23898,7 @@
       </c>
       <c r="L578" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="579" spans="1:12">
@@ -23938,7 +23938,7 @@
       </c>
       <c r="L579" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="580" spans="1:12">
@@ -23978,7 +23978,7 @@
       </c>
       <c r="L580" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="581" spans="1:12">
@@ -24058,7 +24058,7 @@
       </c>
       <c r="L582" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="583" spans="1:12">
@@ -24138,7 +24138,7 @@
       </c>
       <c r="L584" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="585" spans="1:12">
@@ -24218,7 +24218,7 @@
       </c>
       <c r="L586" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="587" spans="1:12">
@@ -24258,7 +24258,7 @@
       </c>
       <c r="L587" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="588" spans="1:12">
@@ -24298,7 +24298,7 @@
       </c>
       <c r="L588" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="589" spans="1:12">
@@ -24338,7 +24338,7 @@
       </c>
       <c r="L589" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="590" spans="1:12">
@@ -24378,7 +24378,7 @@
       </c>
       <c r="L590" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="591" spans="1:12">
@@ -24458,7 +24458,7 @@
       </c>
       <c r="L592" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="593" spans="1:12">
@@ -24498,7 +24498,7 @@
       </c>
       <c r="L593" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="594" spans="1:12">
@@ -24538,7 +24538,7 @@
       </c>
       <c r="L594" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="595" spans="1:12">
@@ -24578,7 +24578,7 @@
       </c>
       <c r="L595" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="596" spans="1:12">
@@ -24618,7 +24618,7 @@
       </c>
       <c r="L596" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="597" spans="1:12">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="L597" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="598" spans="1:12">
@@ -24698,7 +24698,7 @@
       </c>
       <c r="L598" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="599" spans="1:12">
@@ -24738,7 +24738,7 @@
       </c>
       <c r="L599" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="600" spans="1:12">
@@ -24818,7 +24818,7 @@
       </c>
       <c r="L601" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="602" spans="1:12">
@@ -24858,7 +24858,7 @@
       </c>
       <c r="L602" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="603" spans="1:12">
@@ -24898,7 +24898,7 @@
       </c>
       <c r="L603" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="604" spans="1:12">
@@ -24938,7 +24938,7 @@
       </c>
       <c r="L604" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="605" spans="1:12">
@@ -24978,7 +24978,7 @@
       </c>
       <c r="L605" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="606" spans="1:12">
@@ -25018,7 +25018,7 @@
       </c>
       <c r="L606" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="607" spans="1:12">
@@ -25058,7 +25058,7 @@
       </c>
       <c r="L607" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="608" spans="1:12">
@@ -25138,7 +25138,7 @@
       </c>
       <c r="L609" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="610" spans="1:12">
@@ -25218,7 +25218,7 @@
       </c>
       <c r="L611" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="612" spans="1:12">
@@ -25338,7 +25338,7 @@
       </c>
       <c r="L614" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="615" spans="1:12">
@@ -25378,7 +25378,7 @@
       </c>
       <c r="L615" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="616" spans="1:12">
@@ -25418,7 +25418,7 @@
       </c>
       <c r="L616" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="617" spans="1:12">
@@ -25458,7 +25458,7 @@
       </c>
       <c r="L617" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="618" spans="1:12">
@@ -25618,7 +25618,7 @@
       </c>
       <c r="L621" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="622" spans="1:12">
@@ -25738,7 +25738,7 @@
       </c>
       <c r="L624" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="625" spans="1:12">
@@ -25818,7 +25818,7 @@
       </c>
       <c r="L626" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="627" spans="1:12">
@@ -25858,7 +25858,7 @@
       </c>
       <c r="L627" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="628" spans="1:12">
@@ -25898,7 +25898,7 @@
       </c>
       <c r="L628" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="629" spans="1:12">
@@ -25938,7 +25938,7 @@
       </c>
       <c r="L629" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="630" spans="1:12">
@@ -26018,7 +26018,7 @@
       </c>
       <c r="L631" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="632" spans="1:12">
@@ -26138,7 +26138,7 @@
       </c>
       <c r="L634" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="635" spans="1:12">
@@ -26178,7 +26178,7 @@
       </c>
       <c r="L635" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="636" spans="1:12">
@@ -26258,7 +26258,7 @@
       </c>
       <c r="L637" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="638" spans="1:12">
@@ -26378,7 +26378,7 @@
       </c>
       <c r="L640" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="641" spans="1:12">
@@ -26418,7 +26418,7 @@
       </c>
       <c r="L641" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="642" spans="1:12">
@@ -26458,7 +26458,7 @@
       </c>
       <c r="L642" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="643" spans="1:12">
@@ -26538,7 +26538,7 @@
       </c>
       <c r="L644" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="645" spans="1:12">
@@ -26578,7 +26578,7 @@
       </c>
       <c r="L645" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="646" spans="1:12">
@@ -26618,7 +26618,7 @@
       </c>
       <c r="L646" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="647" spans="1:12">
@@ -26658,7 +26658,7 @@
       </c>
       <c r="L647" t="str">
         <f t="shared" ref="L647:L710" ca="1" si="22">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="648" spans="1:12">
@@ -26778,7 +26778,7 @@
       </c>
       <c r="L650" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="651" spans="1:12">
@@ -26818,7 +26818,7 @@
       </c>
       <c r="L651" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="652" spans="1:12">
@@ -26858,7 +26858,7 @@
       </c>
       <c r="L652" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="653" spans="1:12">
@@ -26898,7 +26898,7 @@
       </c>
       <c r="L653" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="654" spans="1:12">
@@ -26938,7 +26938,7 @@
       </c>
       <c r="L654" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="655" spans="1:12">
@@ -26978,7 +26978,7 @@
       </c>
       <c r="L655" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="656" spans="1:12">
@@ -27178,7 +27178,7 @@
       </c>
       <c r="L660" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="661" spans="1:12">
@@ -27218,7 +27218,7 @@
       </c>
       <c r="L661" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="662" spans="1:12">
@@ -27258,7 +27258,7 @@
       </c>
       <c r="L662" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="663" spans="1:12">
@@ -27298,7 +27298,7 @@
       </c>
       <c r="L663" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="664" spans="1:12">
@@ -27338,7 +27338,7 @@
       </c>
       <c r="L664" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="665" spans="1:12">
@@ -27418,7 +27418,7 @@
       </c>
       <c r="L666" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="667" spans="1:12">
@@ -27458,7 +27458,7 @@
       </c>
       <c r="L667" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="668" spans="1:12">
@@ -27498,7 +27498,7 @@
       </c>
       <c r="L668" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="669" spans="1:12">
@@ -27538,7 +27538,7 @@
       </c>
       <c r="L669" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="670" spans="1:12">
@@ -27618,7 +27618,7 @@
       </c>
       <c r="L671" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="672" spans="1:12">
@@ -27658,7 +27658,7 @@
       </c>
       <c r="L672" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="673" spans="1:12">
@@ -27738,7 +27738,7 @@
       </c>
       <c r="L674" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="675" spans="1:12">
@@ -27858,7 +27858,7 @@
       </c>
       <c r="L677" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="678" spans="1:12">
@@ -27938,7 +27938,7 @@
       </c>
       <c r="L679" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="680" spans="1:12">
@@ -27978,7 +27978,7 @@
       </c>
       <c r="L680" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="681" spans="1:12">
@@ -28058,7 +28058,7 @@
       </c>
       <c r="L682" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="683" spans="1:12">
@@ -28138,7 +28138,7 @@
       </c>
       <c r="L684" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="685" spans="1:12">
@@ -28178,7 +28178,7 @@
       </c>
       <c r="L685" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="686" spans="1:12">
@@ -28218,7 +28218,7 @@
       </c>
       <c r="L686" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="687" spans="1:12">
@@ -28258,7 +28258,7 @@
       </c>
       <c r="L687" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="688" spans="1:12">
@@ -28298,7 +28298,7 @@
       </c>
       <c r="L688" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="689" spans="1:12">
@@ -28378,7 +28378,7 @@
       </c>
       <c r="L690" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="691" spans="1:12">
@@ -28418,7 +28418,7 @@
       </c>
       <c r="L691" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="692" spans="1:12">
@@ -28458,7 +28458,7 @@
       </c>
       <c r="L692" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="693" spans="1:12">
@@ -28578,7 +28578,7 @@
       </c>
       <c r="L695" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="696" spans="1:12">
@@ -28618,7 +28618,7 @@
       </c>
       <c r="L696" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="697" spans="1:12">
@@ -28658,7 +28658,7 @@
       </c>
       <c r="L697" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="698" spans="1:12">
@@ -28698,7 +28698,7 @@
       </c>
       <c r="L698" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="699" spans="1:12">
@@ -28738,7 +28738,7 @@
       </c>
       <c r="L699" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="700" spans="1:12">
@@ -28778,7 +28778,7 @@
       </c>
       <c r="L700" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="701" spans="1:12">
@@ -28818,7 +28818,7 @@
       </c>
       <c r="L701" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="702" spans="1:12">
@@ -28898,7 +28898,7 @@
       </c>
       <c r="L703" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="704" spans="1:12">
@@ -28938,7 +28938,7 @@
       </c>
       <c r="L704" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="705" spans="1:12">
@@ -28978,7 +28978,7 @@
       </c>
       <c r="L705" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="706" spans="1:12">
@@ -29018,7 +29018,7 @@
       </c>
       <c r="L706" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="707" spans="1:12">
@@ -29058,7 +29058,7 @@
       </c>
       <c r="L707" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="708" spans="1:12">
@@ -29098,7 +29098,7 @@
       </c>
       <c r="L708" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="709" spans="1:12">
@@ -29138,7 +29138,7 @@
       </c>
       <c r="L709" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="710" spans="1:12">
@@ -29178,7 +29178,7 @@
       </c>
       <c r="L710" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="711" spans="1:12">
@@ -29298,7 +29298,7 @@
       </c>
       <c r="L713" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="714" spans="1:12">
@@ -29338,7 +29338,7 @@
       </c>
       <c r="L714" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="715" spans="1:12">
@@ -29378,7 +29378,7 @@
       </c>
       <c r="L715" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="716" spans="1:12">
@@ -29418,7 +29418,7 @@
       </c>
       <c r="L716" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="717" spans="1:12">
@@ -29498,7 +29498,7 @@
       </c>
       <c r="L718" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="719" spans="1:12">
@@ -29578,7 +29578,7 @@
       </c>
       <c r="L720" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="721" spans="1:12">
@@ -29618,7 +29618,7 @@
       </c>
       <c r="L721" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="722" spans="1:12">
@@ -29658,7 +29658,7 @@
       </c>
       <c r="L722" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="723" spans="1:12">
@@ -29738,7 +29738,7 @@
       </c>
       <c r="L724" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="725" spans="1:12">
@@ -29858,7 +29858,7 @@
       </c>
       <c r="L727" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="728" spans="1:12">
@@ -29898,7 +29898,7 @@
       </c>
       <c r="L728" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="729" spans="1:12">
@@ -29938,7 +29938,7 @@
       </c>
       <c r="L729" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="730" spans="1:12">
@@ -29978,7 +29978,7 @@
       </c>
       <c r="L730" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="731" spans="1:12">
@@ -30018,7 +30018,7 @@
       </c>
       <c r="L731" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="732" spans="1:12">
@@ -30098,7 +30098,7 @@
       </c>
       <c r="L733" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="734" spans="1:12">
@@ -30138,7 +30138,7 @@
       </c>
       <c r="L734" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="735" spans="1:12">
@@ -30178,7 +30178,7 @@
       </c>
       <c r="L735" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="736" spans="1:12">
@@ -30218,7 +30218,7 @@
       </c>
       <c r="L736" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="737" spans="1:12">
@@ -30298,7 +30298,7 @@
       </c>
       <c r="L738" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="739" spans="1:12">
@@ -30378,7 +30378,7 @@
       </c>
       <c r="L740" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="741" spans="1:12">
@@ -30418,7 +30418,7 @@
       </c>
       <c r="L741" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="742" spans="1:12">
@@ -30458,7 +30458,7 @@
       </c>
       <c r="L742" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="743" spans="1:12">
@@ -30498,7 +30498,7 @@
       </c>
       <c r="L743" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="744" spans="1:12">
@@ -30538,7 +30538,7 @@
       </c>
       <c r="L744" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="745" spans="1:12">
@@ -30618,7 +30618,7 @@
       </c>
       <c r="L746" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="747" spans="1:12">
@@ -30658,7 +30658,7 @@
       </c>
       <c r="L747" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="748" spans="1:12">
@@ -30698,7 +30698,7 @@
       </c>
       <c r="L748" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="749" spans="1:12">
@@ -30778,7 +30778,7 @@
       </c>
       <c r="L750" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="751" spans="1:12">
@@ -30818,7 +30818,7 @@
       </c>
       <c r="L751" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="752" spans="1:12">
@@ -30858,7 +30858,7 @@
       </c>
       <c r="L752" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="753" spans="1:12">
@@ -30898,7 +30898,7 @@
       </c>
       <c r="L753" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="754" spans="1:12">
@@ -30938,7 +30938,7 @@
       </c>
       <c r="L754" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="755" spans="1:12">
@@ -31018,7 +31018,7 @@
       </c>
       <c r="L756" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="757" spans="1:12">
@@ -31098,7 +31098,7 @@
       </c>
       <c r="L758" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="759" spans="1:12">
@@ -31138,7 +31138,7 @@
       </c>
       <c r="L759" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="760" spans="1:12">
@@ -31178,7 +31178,7 @@
       </c>
       <c r="L760" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="761" spans="1:12">
@@ -31218,7 +31218,7 @@
       </c>
       <c r="L761" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="762" spans="1:12">
@@ -31258,7 +31258,7 @@
       </c>
       <c r="L762" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="763" spans="1:12">
@@ -31298,7 +31298,7 @@
       </c>
       <c r="L763" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="764" spans="1:12">
@@ -31338,7 +31338,7 @@
       </c>
       <c r="L764" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="765" spans="1:12">
@@ -31498,7 +31498,7 @@
       </c>
       <c r="L768" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="769" spans="1:12">
@@ -31538,7 +31538,7 @@
       </c>
       <c r="L769" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="770" spans="1:12">
@@ -31578,7 +31578,7 @@
       </c>
       <c r="L770" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="771" spans="1:12">
@@ -31658,7 +31658,7 @@
       </c>
       <c r="L772" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="773" spans="1:12">
@@ -31698,7 +31698,7 @@
       </c>
       <c r="L773" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="774" spans="1:12">
@@ -31738,7 +31738,7 @@
       </c>
       <c r="L774" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="775" spans="1:12">
@@ -31778,7 +31778,7 @@
       </c>
       <c r="L775" t="str">
         <f t="shared" ref="L775:L838" ca="1" si="26">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="776" spans="1:12">
@@ -31858,7 +31858,7 @@
       </c>
       <c r="L777" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="778" spans="1:12">
@@ -31898,7 +31898,7 @@
       </c>
       <c r="L778" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="779" spans="1:12">
@@ -31938,7 +31938,7 @@
       </c>
       <c r="L779" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="780" spans="1:12">
@@ -31978,7 +31978,7 @@
       </c>
       <c r="L780" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="781" spans="1:12">
@@ -32018,7 +32018,7 @@
       </c>
       <c r="L781" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="782" spans="1:12">
@@ -32058,7 +32058,7 @@
       </c>
       <c r="L782" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="783" spans="1:12">
@@ -32098,7 +32098,7 @@
       </c>
       <c r="L783" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="784" spans="1:12">
@@ -32138,7 +32138,7 @@
       </c>
       <c r="L784" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="785" spans="1:12">
@@ -32178,7 +32178,7 @@
       </c>
       <c r="L785" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="786" spans="1:12">
@@ -32258,7 +32258,7 @@
       </c>
       <c r="L787" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="788" spans="1:12">
@@ -32298,7 +32298,7 @@
       </c>
       <c r="L788" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="789" spans="1:12">
@@ -32338,7 +32338,7 @@
       </c>
       <c r="L789" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="790" spans="1:12">
@@ -32418,7 +32418,7 @@
       </c>
       <c r="L791" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="792" spans="1:12">
@@ -32458,7 +32458,7 @@
       </c>
       <c r="L792" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="793" spans="1:12">
@@ -32498,7 +32498,7 @@
       </c>
       <c r="L793" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="794" spans="1:12">
@@ -32578,7 +32578,7 @@
       </c>
       <c r="L795" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="796" spans="1:12">
@@ -32658,7 +32658,7 @@
       </c>
       <c r="L797" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="798" spans="1:12">
@@ -32698,7 +32698,7 @@
       </c>
       <c r="L798" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="799" spans="1:12">
@@ -32738,7 +32738,7 @@
       </c>
       <c r="L799" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="800" spans="1:12">
@@ -32778,7 +32778,7 @@
       </c>
       <c r="L800" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="801" spans="1:12">
@@ -32818,7 +32818,7 @@
       </c>
       <c r="L801" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="802" spans="1:12">
@@ -32898,7 +32898,7 @@
       </c>
       <c r="L803" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="804" spans="1:12">
@@ -32938,7 +32938,7 @@
       </c>
       <c r="L804" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="805" spans="1:12">
@@ -32978,7 +32978,7 @@
       </c>
       <c r="L805" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="806" spans="1:12">
@@ -33018,7 +33018,7 @@
       </c>
       <c r="L806" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="807" spans="1:12">
@@ -33058,7 +33058,7 @@
       </c>
       <c r="L807" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="808" spans="1:12">
@@ -33098,7 +33098,7 @@
       </c>
       <c r="L808" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="809" spans="1:12">
@@ -33178,7 +33178,7 @@
       </c>
       <c r="L810" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="811" spans="1:12">
@@ -33218,7 +33218,7 @@
       </c>
       <c r="L811" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="812" spans="1:12">
@@ -33258,7 +33258,7 @@
       </c>
       <c r="L812" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="813" spans="1:12">
@@ -33298,7 +33298,7 @@
       </c>
       <c r="L813" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="814" spans="1:12">
@@ -33338,7 +33338,7 @@
       </c>
       <c r="L814" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="815" spans="1:12">
@@ -33378,7 +33378,7 @@
       </c>
       <c r="L815" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="816" spans="1:12">
@@ -33415,7 +33415,7 @@
       </c>
       <c r="L816" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="817" spans="1:12">
@@ -33452,7 +33452,7 @@
       </c>
       <c r="L817" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="818" spans="1:12">
@@ -33489,7 +33489,7 @@
       </c>
       <c r="L818" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="819" spans="1:12">
@@ -33563,7 +33563,7 @@
       </c>
       <c r="L820" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="821" spans="1:12">
@@ -33637,7 +33637,7 @@
       </c>
       <c r="L822" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="823" spans="1:12">
@@ -33674,7 +33674,7 @@
       </c>
       <c r="L823" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="824" spans="1:12">
@@ -33711,7 +33711,7 @@
       </c>
       <c r="L824" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="825" spans="1:12">
@@ -33748,7 +33748,7 @@
       </c>
       <c r="L825" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="826" spans="1:12">
@@ -33788,7 +33788,7 @@
       </c>
       <c r="L826" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="827" spans="1:12">
@@ -33868,7 +33868,7 @@
       </c>
       <c r="L828" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="829" spans="1:12">
@@ -33908,7 +33908,7 @@
       </c>
       <c r="L829" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="830" spans="1:12">
@@ -33988,7 +33988,7 @@
       </c>
       <c r="L831" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="832" spans="1:12">
@@ -34028,7 +34028,7 @@
       </c>
       <c r="L832" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="833" spans="1:12">
@@ -34108,7 +34108,7 @@
       </c>
       <c r="L834" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="835" spans="1:12">
@@ -34148,7 +34148,7 @@
       </c>
       <c r="L835" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="836" spans="1:12">
@@ -34228,7 +34228,7 @@
       </c>
       <c r="L837" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="838" spans="1:12">
@@ -34268,7 +34268,7 @@
       </c>
       <c r="L838" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="839" spans="1:12">
@@ -34428,7 +34428,7 @@
       </c>
       <c r="L842" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="843" spans="1:12">
@@ -34508,7 +34508,7 @@
       </c>
       <c r="L844" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="845" spans="1:12">
@@ -34548,7 +34548,7 @@
       </c>
       <c r="L845" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="846" spans="1:12">
@@ -34588,7 +34588,7 @@
       </c>
       <c r="L846" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="847" spans="1:12">
@@ -34628,7 +34628,7 @@
       </c>
       <c r="L847" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="848" spans="1:12">
@@ -34668,7 +34668,7 @@
       </c>
       <c r="L848" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="849" spans="1:12">
@@ -34708,7 +34708,7 @@
       </c>
       <c r="L849" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="850" spans="1:12">
@@ -34748,7 +34748,7 @@
       </c>
       <c r="L850" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="851" spans="1:12">
@@ -34788,7 +34788,7 @@
       </c>
       <c r="L851" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="852" spans="1:12">
@@ -34828,7 +34828,7 @@
       </c>
       <c r="L852" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="853" spans="1:12">
@@ -34868,7 +34868,7 @@
       </c>
       <c r="L853" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="854" spans="1:12">
@@ -34908,7 +34908,7 @@
       </c>
       <c r="L854" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="855" spans="1:12">
@@ -34948,7 +34948,7 @@
       </c>
       <c r="L855" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="856" spans="1:12">
@@ -34988,7 +34988,7 @@
       </c>
       <c r="L856" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="857" spans="1:12">
@@ -35028,7 +35028,7 @@
       </c>
       <c r="L857" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="858" spans="1:12">
@@ -35068,7 +35068,7 @@
       </c>
       <c r="L858" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="859" spans="1:12">
@@ -35108,7 +35108,7 @@
       </c>
       <c r="L859" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="860" spans="1:12">
@@ -35148,7 +35148,7 @@
       </c>
       <c r="L860" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="861" spans="1:12">
@@ -35188,7 +35188,7 @@
       </c>
       <c r="L861" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="862" spans="1:12">
@@ -35228,7 +35228,7 @@
       </c>
       <c r="L862" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="863" spans="1:12">
@@ -35348,7 +35348,7 @@
       </c>
       <c r="L865" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="866" spans="1:12">
@@ -35422,7 +35422,7 @@
       </c>
       <c r="L867" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="868" spans="1:12">
@@ -35459,7 +35459,7 @@
       </c>
       <c r="L868" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="869" spans="1:12">
@@ -35496,7 +35496,7 @@
       </c>
       <c r="L869" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="870" spans="1:12">
@@ -35607,7 +35607,7 @@
       </c>
       <c r="L872" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="873" spans="1:12">
@@ -35644,7 +35644,7 @@
       </c>
       <c r="L873" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="874" spans="1:12">
@@ -35681,7 +35681,7 @@
       </c>
       <c r="L874" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="875" spans="1:12">
@@ -35718,7 +35718,7 @@
       </c>
       <c r="L875" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="876" spans="1:12">
@@ -35758,7 +35758,7 @@
       </c>
       <c r="L876" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="877" spans="1:12">
@@ -35798,7 +35798,7 @@
       </c>
       <c r="L877" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="878" spans="1:12">
@@ -35838,7 +35838,7 @@
       </c>
       <c r="L878" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="879" spans="1:12">
@@ -35878,7 +35878,7 @@
       </c>
       <c r="L879" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="880" spans="1:12">
@@ -35918,7 +35918,7 @@
       </c>
       <c r="L880" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="881" spans="1:12">
@@ -35958,7 +35958,7 @@
       </c>
       <c r="L881" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="882" spans="1:12">
@@ -35998,7 +35998,7 @@
       </c>
       <c r="L882" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="883" spans="1:12">
@@ -36038,7 +36038,7 @@
       </c>
       <c r="L883" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="884" spans="1:12">
@@ -36078,7 +36078,7 @@
       </c>
       <c r="L884" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="885" spans="1:12">
@@ -36158,7 +36158,7 @@
       </c>
       <c r="L886" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="887" spans="1:12">
@@ -36198,7 +36198,7 @@
       </c>
       <c r="L887" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="888" spans="1:12">
@@ -36238,7 +36238,7 @@
       </c>
       <c r="L888" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="889" spans="1:12">
@@ -36318,7 +36318,7 @@
       </c>
       <c r="L890" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="891" spans="1:12">
@@ -36358,7 +36358,7 @@
       </c>
       <c r="L891" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="892" spans="1:12">
@@ -36438,7 +36438,7 @@
       </c>
       <c r="L893" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="894" spans="1:12">
@@ -36478,7 +36478,7 @@
       </c>
       <c r="L894" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="895" spans="1:12">
@@ -36518,7 +36518,7 @@
       </c>
       <c r="L895" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="896" spans="1:12">
@@ -36555,7 +36555,7 @@
       </c>
       <c r="L896" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="897" spans="1:12">
@@ -36629,7 +36629,7 @@
       </c>
       <c r="L898" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="899" spans="1:12">
@@ -36666,7 +36666,7 @@
       </c>
       <c r="L899" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="900" spans="1:12">
@@ -36703,7 +36703,7 @@
       </c>
       <c r="L900" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="901" spans="1:12">
@@ -36740,7 +36740,7 @@
       </c>
       <c r="L901" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="902" spans="1:12">
@@ -36777,7 +36777,7 @@
       </c>
       <c r="L902" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="903" spans="1:12">
@@ -36814,7 +36814,7 @@
       </c>
       <c r="L903" t="str">
         <f t="shared" ref="L903:L966" ca="1" si="30">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="904" spans="1:12">
@@ -36851,7 +36851,7 @@
       </c>
       <c r="L904" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="905" spans="1:12">
@@ -36888,7 +36888,7 @@
       </c>
       <c r="L905" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="906" spans="1:12">
@@ -36925,7 +36925,7 @@
       </c>
       <c r="L906" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="907" spans="1:12">
@@ -36962,7 +36962,7 @@
       </c>
       <c r="L907" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="908" spans="1:12">
@@ -36999,7 +36999,7 @@
       </c>
       <c r="L908" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="909" spans="1:12">
@@ -37073,7 +37073,7 @@
       </c>
       <c r="L910" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="911" spans="1:12">
@@ -37147,7 +37147,7 @@
       </c>
       <c r="L912" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="913" spans="1:12">
@@ -37184,7 +37184,7 @@
       </c>
       <c r="L913" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="914" spans="1:12">
@@ -37221,7 +37221,7 @@
       </c>
       <c r="L914" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="915" spans="1:12">
@@ -37258,7 +37258,7 @@
       </c>
       <c r="L915" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="916" spans="1:12">
@@ -37295,7 +37295,7 @@
       </c>
       <c r="L916" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="917" spans="1:12">
@@ -37406,7 +37406,7 @@
       </c>
       <c r="L919" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="920" spans="1:12">
@@ -37517,7 +37517,7 @@
       </c>
       <c r="L922" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="923" spans="1:12">
@@ -37554,7 +37554,7 @@
       </c>
       <c r="L923" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="924" spans="1:12">
@@ -37591,7 +37591,7 @@
       </c>
       <c r="L924" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="925" spans="1:12">
@@ -37628,7 +37628,7 @@
       </c>
       <c r="L925" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="926" spans="1:12">
@@ -37668,7 +37668,7 @@
       </c>
       <c r="L926" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="927" spans="1:12">
@@ -37708,7 +37708,7 @@
       </c>
       <c r="L927" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="928" spans="1:12">
@@ -37748,7 +37748,7 @@
       </c>
       <c r="L928" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="929" spans="1:12">
@@ -37788,7 +37788,7 @@
       </c>
       <c r="L929" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="930" spans="1:12">
@@ -37868,7 +37868,7 @@
       </c>
       <c r="L931" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="932" spans="1:12">
@@ -37908,7 +37908,7 @@
       </c>
       <c r="L932" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="933" spans="1:12">
@@ -37988,7 +37988,7 @@
       </c>
       <c r="L934" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="935" spans="1:12">
@@ -38068,7 +38068,7 @@
       </c>
       <c r="L936" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="937" spans="1:12">
@@ -38108,7 +38108,7 @@
       </c>
       <c r="L937" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="938" spans="1:12">
@@ -38148,7 +38148,7 @@
       </c>
       <c r="L938" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="939" spans="1:12">
@@ -38188,7 +38188,7 @@
       </c>
       <c r="L939" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="940" spans="1:12">
@@ -38228,7 +38228,7 @@
       </c>
       <c r="L940" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="941" spans="1:12">
@@ -38268,7 +38268,7 @@
       </c>
       <c r="L941" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="942" spans="1:12">
@@ -38308,7 +38308,7 @@
       </c>
       <c r="L942" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="943" spans="1:12">
@@ -38428,7 +38428,7 @@
       </c>
       <c r="L945" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="946" spans="1:12">
@@ -38468,7 +38468,7 @@
       </c>
       <c r="L946" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="947" spans="1:12">
@@ -38508,7 +38508,7 @@
       </c>
       <c r="L947" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="948" spans="1:12">
@@ -38548,7 +38548,7 @@
       </c>
       <c r="L948" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="949" spans="1:12">
@@ -38588,7 +38588,7 @@
       </c>
       <c r="L949" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="950" spans="1:12">
@@ -38628,7 +38628,7 @@
       </c>
       <c r="L950" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="951" spans="1:12">
@@ -38668,7 +38668,7 @@
       </c>
       <c r="L951" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="952" spans="1:12">
@@ -38708,7 +38708,7 @@
       </c>
       <c r="L952" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="953" spans="1:12">
@@ -38748,7 +38748,7 @@
       </c>
       <c r="L953" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="954" spans="1:12">
@@ -38788,7 +38788,7 @@
       </c>
       <c r="L954" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="955" spans="1:12">
@@ -38868,7 +38868,7 @@
       </c>
       <c r="L956" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="957" spans="1:12">
@@ -38948,7 +38948,7 @@
       </c>
       <c r="L958" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="959" spans="1:12">
@@ -38988,7 +38988,7 @@
       </c>
       <c r="L959" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="960" spans="1:12">
@@ -39028,7 +39028,7 @@
       </c>
       <c r="L960" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="961" spans="1:12">
@@ -39068,7 +39068,7 @@
       </c>
       <c r="L961" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="962" spans="1:12">
@@ -39108,7 +39108,7 @@
       </c>
       <c r="L962" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="963" spans="1:12">
@@ -39148,7 +39148,7 @@
       </c>
       <c r="L963" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="964" spans="1:12">
@@ -39188,7 +39188,7 @@
       </c>
       <c r="L964" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="965" spans="1:12">
@@ -39228,7 +39228,7 @@
       </c>
       <c r="L965" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="966" spans="1:12">
@@ -39308,7 +39308,7 @@
       </c>
       <c r="L967" t="str">
         <f t="shared" ref="L967:L1025" ca="1" si="32">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="968" spans="1:12">
@@ -39428,7 +39428,7 @@
       </c>
       <c r="L970" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="971" spans="1:12">
@@ -39468,7 +39468,7 @@
       </c>
       <c r="L971" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="972" spans="1:12">
@@ -39508,7 +39508,7 @@
       </c>
       <c r="L972" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="973" spans="1:12">
@@ -39548,7 +39548,7 @@
       </c>
       <c r="L973" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="974" spans="1:12">
@@ -39588,7 +39588,7 @@
       </c>
       <c r="L974" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="975" spans="1:12">
@@ -39628,7 +39628,7 @@
       </c>
       <c r="L975" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="976" spans="1:12">
@@ -39708,7 +39708,7 @@
       </c>
       <c r="L977" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="978" spans="1:12">
@@ -39748,7 +39748,7 @@
       </c>
       <c r="L978" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="979" spans="1:12">
@@ -39788,7 +39788,7 @@
       </c>
       <c r="L979" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="980" spans="1:12">
@@ -39828,7 +39828,7 @@
       </c>
       <c r="L980" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="981" spans="1:12">
@@ -39868,7 +39868,7 @@
       </c>
       <c r="L981" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="982" spans="1:12">
@@ -39908,7 +39908,7 @@
       </c>
       <c r="L982" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="983" spans="1:12">
@@ -39948,7 +39948,7 @@
       </c>
       <c r="L983" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="984" spans="1:12">
@@ -39988,7 +39988,7 @@
       </c>
       <c r="L984" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="985" spans="1:12">
@@ -40028,7 +40028,7 @@
       </c>
       <c r="L985" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="986" spans="1:12">
@@ -40065,7 +40065,7 @@
       </c>
       <c r="L986" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="987" spans="1:12">
@@ -40139,7 +40139,7 @@
       </c>
       <c r="L988" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="989" spans="1:12">
@@ -40176,7 +40176,7 @@
       </c>
       <c r="L989" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="990" spans="1:12">
@@ -40213,7 +40213,7 @@
       </c>
       <c r="L990" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="991" spans="1:12">
@@ -40250,7 +40250,7 @@
       </c>
       <c r="L991" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="992" spans="1:12">
@@ -40287,7 +40287,7 @@
       </c>
       <c r="L992" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="993" spans="1:12">
@@ -40361,7 +40361,7 @@
       </c>
       <c r="L994" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="995" spans="1:12">
@@ -40398,7 +40398,7 @@
       </c>
       <c r="L995" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Aaargh argh</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="996" spans="1:12">
@@ -40438,7 +40438,7 @@
       </c>
       <c r="L996" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="997" spans="1:12">
@@ -40478,7 +40478,7 @@
       </c>
       <c r="L997" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="998" spans="1:12">
@@ -40518,7 +40518,7 @@
       </c>
       <c r="L998" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="999" spans="1:12">
@@ -40558,7 +40558,7 @@
       </c>
       <c r="L999" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="1000" spans="1:12">
@@ -40598,7 +40598,7 @@
       </c>
       <c r="L1000" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="1001" spans="1:12">
@@ -40638,7 +40638,7 @@
       </c>
       <c r="L1001" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="1002" spans="1:12">
@@ -40678,7 +40678,7 @@
       </c>
       <c r="L1002" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="1003" spans="1:12">
@@ -40718,7 +40718,7 @@
       </c>
       <c r="L1003" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Arghidae</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="1004" spans="1:12">
@@ -40758,7 +40758,7 @@
       </c>
       <c r="L1004" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Morphospecies 1</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="1005" spans="1:12">
@@ -40798,7 +40798,7 @@
       </c>
       <c r="L1005" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="1006" spans="1:12">
@@ -40838,7 +40838,7 @@
       </c>
       <c r="L1006" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="1007" spans="1:12">
@@ -40878,7 +40878,7 @@
       </c>
       <c r="L1007" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="1008" spans="1:12">
@@ -40918,7 +40918,7 @@
       </c>
       <c r="L1008" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="1009" spans="1:12">
@@ -40958,7 +40958,7 @@
       </c>
       <c r="L1009" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="1010" spans="1:12">
@@ -40998,7 +40998,7 @@
       </c>
       <c r="L1010" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Arghidae</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="1011" spans="1:12">
@@ -41038,7 +41038,7 @@
       </c>
       <c r="L1011" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="1012" spans="1:12">
@@ -41118,7 +41118,7 @@
       </c>
       <c r="L1013" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Aaargh argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="1014" spans="1:12">
@@ -41158,7 +41158,7 @@
       </c>
       <c r="L1014" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="1015" spans="1:12">
@@ -41198,7 +41198,7 @@
       </c>
       <c r="L1015" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="1016" spans="1:12">
@@ -41238,7 +41238,7 @@
       </c>
       <c r="L1016" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Argh</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="1017" spans="1:12">
@@ -41278,7 +41278,7 @@
       </c>
       <c r="L1017" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="1018" spans="1:12">
@@ -41318,7 +41318,7 @@
       </c>
       <c r="L1018" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Arghidae</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="1019" spans="1:12">
@@ -41358,7 +41358,7 @@
       </c>
       <c r="L1019" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Morphospecies 1</v>
+        <v>Argh</v>
       </c>
     </row>
     <row r="1020" spans="1:12">
@@ -41478,7 +41478,7 @@
       </c>
       <c r="L1022" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Argh</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="1023" spans="1:12">
@@ -41518,7 +41518,7 @@
       </c>
       <c r="L1023" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Aaargh argh</v>
+        <v>Arghidae</v>
       </c>
     </row>
     <row r="1024" spans="1:12">
@@ -41558,7 +41558,7 @@
       </c>
       <c r="L1024" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Morphospecies 1</v>
+        <v>Aaargh argh</v>
       </c>
     </row>
     <row r="1025" spans="1:12">
@@ -41616,7 +41616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
